--- a/resources/GSEA1/Notes_ApresRat.xlsx
+++ b/resources/GSEA1/Notes_ApresRat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projet_Gestion_Scolarite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSEA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234DBF5E-190D-47CB-9131-B68A3CD23E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCB659-005A-491A-B38A-736BBE9281DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{335A8C19-2AA3-4ABA-B58B-0EDA2A5E21F3}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>19000031</v>
+        <v>19000021</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>19000032</v>
+        <v>19000022</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>19000033</v>
+        <v>19000023</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>19000034</v>
+        <v>19000024</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>19000035</v>
+        <v>19000025</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>19000036</v>
+        <v>19000026</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>19000037</v>
+        <v>19000027</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>19000038</v>
+        <v>19000028</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>19000039</v>
+        <v>19000029</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>19000040</v>
+        <v>19000030</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
